--- a/csh-pom/csh-operation/src/main/webapp/template/template.xlsx
+++ b/csh-pom/csh-operation/src/main/webapp/template/template.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>DeviceNo</t>
+    <t>设备编号</t>
   </si>
   <si>
-    <t>SimNo</t>
-  </si>
-  <si>
-    <t>DeviceType</t>
+    <t>Sim卡号</t>
   </si>
 </sst>
 </file>
@@ -356,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -369,15 +366,12 @@
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
